--- a/data/itis_students.xlsx
+++ b/data/itis_students.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\никита\Desktop\ITIS-helper\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minga\PycharmProjects\ITIS-helper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479CCA57-B305-44E3-AF0E-F55451D5CEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FF300A-B68B-4C05-B553-BC3671C4A3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7479,8 +7479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A998" workbookViewId="0">
-      <selection activeCell="E1045" sqref="E1045"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="G319" sqref="G319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12878,7 +12878,7 @@
         <v>645</v>
       </c>
       <c r="E317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">

--- a/data/itis_students.xlsx
+++ b/data/itis_students.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minga\PycharmProjects\ITIS-helper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FF300A-B68B-4C05-B553-BC3671C4A3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC9891-A4B7-461F-8E19-E7FF1EF79DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="2365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="2366">
   <si>
     <t>FIO</t>
   </si>
@@ -7115,6 +7115,9 @@
   </si>
   <si>
     <t>Шубин Алексей</t>
+  </si>
+  <si>
+    <t>магистратура</t>
   </si>
 </sst>
 </file>
@@ -7479,8 +7482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="G319" sqref="G319"/>
+    <sheetView tabSelected="1" topLeftCell="A1129" workbookViewId="0">
+      <selection activeCell="F1139" sqref="F1139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25772,7 +25775,7 @@
         <v>2142</v>
       </c>
       <c r="B1076" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1076" t="s">
         <v>2144</v>
@@ -25789,7 +25792,7 @@
         <v>2146</v>
       </c>
       <c r="B1077" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1077" t="s">
         <v>2144</v>
@@ -25806,7 +25809,7 @@
         <v>2148</v>
       </c>
       <c r="B1078" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1078" t="s">
         <v>2144</v>
@@ -25823,7 +25826,7 @@
         <v>2150</v>
       </c>
       <c r="B1079" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1079" t="s">
         <v>2144</v>
@@ -25840,7 +25843,7 @@
         <v>2152</v>
       </c>
       <c r="B1080" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1080" t="s">
         <v>2144</v>
@@ -25857,7 +25860,7 @@
         <v>2154</v>
       </c>
       <c r="B1081" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1081" t="s">
         <v>2144</v>
@@ -25874,7 +25877,7 @@
         <v>2156</v>
       </c>
       <c r="B1082" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1082" t="s">
         <v>2144</v>
@@ -25891,7 +25894,7 @@
         <v>2158</v>
       </c>
       <c r="B1083" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1083" t="s">
         <v>2144</v>
@@ -25908,7 +25911,7 @@
         <v>2160</v>
       </c>
       <c r="B1084" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1084" t="s">
         <v>2144</v>
@@ -25925,7 +25928,7 @@
         <v>2162</v>
       </c>
       <c r="B1085" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1085" t="s">
         <v>2144</v>
@@ -25942,7 +25945,7 @@
         <v>2164</v>
       </c>
       <c r="B1086" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1086" t="s">
         <v>2144</v>
@@ -25959,7 +25962,7 @@
         <v>2165</v>
       </c>
       <c r="B1087" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1087" t="s">
         <v>2144</v>
@@ -25976,7 +25979,7 @@
         <v>2167</v>
       </c>
       <c r="B1088" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1088" t="s">
         <v>2144</v>
@@ -25993,7 +25996,7 @@
         <v>2169</v>
       </c>
       <c r="B1089" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1089" t="s">
         <v>2144</v>
@@ -26010,7 +26013,7 @@
         <v>2171</v>
       </c>
       <c r="B1090" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1090" t="s">
         <v>2144</v>
@@ -26027,7 +26030,7 @@
         <v>2173</v>
       </c>
       <c r="B1091" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1091" t="s">
         <v>2144</v>
@@ -26044,7 +26047,7 @@
         <v>2175</v>
       </c>
       <c r="B1092" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1092" t="s">
         <v>2144</v>
@@ -26061,7 +26064,7 @@
         <v>2177</v>
       </c>
       <c r="B1093" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1093" t="s">
         <v>2178</v>
@@ -26078,7 +26081,7 @@
         <v>2180</v>
       </c>
       <c r="B1094" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1094" t="s">
         <v>2178</v>
@@ -26095,7 +26098,7 @@
         <v>2182</v>
       </c>
       <c r="B1095" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1095" t="s">
         <v>2178</v>
@@ -26112,7 +26115,7 @@
         <v>2184</v>
       </c>
       <c r="B1096" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1096" t="s">
         <v>2178</v>
@@ -26129,7 +26132,7 @@
         <v>2186</v>
       </c>
       <c r="B1097" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1097" t="s">
         <v>2178</v>
@@ -26146,7 +26149,7 @@
         <v>2188</v>
       </c>
       <c r="B1098" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1098" t="s">
         <v>2178</v>
@@ -26163,7 +26166,7 @@
         <v>2190</v>
       </c>
       <c r="B1099" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1099" t="s">
         <v>2178</v>
@@ -26180,7 +26183,7 @@
         <v>2192</v>
       </c>
       <c r="B1100" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1100" t="s">
         <v>2178</v>
@@ -26197,7 +26200,7 @@
         <v>2194</v>
       </c>
       <c r="B1101" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1101" t="s">
         <v>2178</v>
@@ -26214,7 +26217,7 @@
         <v>2196</v>
       </c>
       <c r="B1102" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1102" t="s">
         <v>2178</v>
@@ -26231,7 +26234,7 @@
         <v>2198</v>
       </c>
       <c r="B1103" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1103" t="s">
         <v>2178</v>
@@ -26248,7 +26251,7 @@
         <v>2200</v>
       </c>
       <c r="B1104" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1104" t="s">
         <v>2178</v>
@@ -26265,7 +26268,7 @@
         <v>2202</v>
       </c>
       <c r="B1105" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1105" t="s">
         <v>2178</v>
@@ -26282,7 +26285,7 @@
         <v>2204</v>
       </c>
       <c r="B1106" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1106" t="s">
         <v>2178</v>
@@ -26299,7 +26302,7 @@
         <v>2206</v>
       </c>
       <c r="B1107" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1107" t="s">
         <v>2178</v>
@@ -26316,7 +26319,7 @@
         <v>2208</v>
       </c>
       <c r="B1108" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1108" t="s">
         <v>2178</v>
@@ -26333,7 +26336,7 @@
         <v>2210</v>
       </c>
       <c r="B1109" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1109" t="s">
         <v>2178</v>
@@ -26350,7 +26353,7 @@
         <v>2212</v>
       </c>
       <c r="B1110" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1110" t="s">
         <v>2178</v>
@@ -26367,7 +26370,7 @@
         <v>2214</v>
       </c>
       <c r="B1111" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1111" t="s">
         <v>2215</v>
@@ -26384,7 +26387,7 @@
         <v>2217</v>
       </c>
       <c r="B1112" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1112" t="s">
         <v>2215</v>
@@ -26401,7 +26404,7 @@
         <v>2219</v>
       </c>
       <c r="B1113" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1113" t="s">
         <v>2215</v>
@@ -26418,7 +26421,7 @@
         <v>2221</v>
       </c>
       <c r="B1114" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1114" t="s">
         <v>2215</v>
@@ -26435,7 +26438,7 @@
         <v>2223</v>
       </c>
       <c r="B1115" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1115" t="s">
         <v>2215</v>
@@ -26452,7 +26455,7 @@
         <v>2225</v>
       </c>
       <c r="B1116" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1116" t="s">
         <v>2215</v>
@@ -26469,7 +26472,7 @@
         <v>2227</v>
       </c>
       <c r="B1117" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1117" t="s">
         <v>2215</v>
@@ -26486,7 +26489,7 @@
         <v>2229</v>
       </c>
       <c r="B1118" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1118" t="s">
         <v>2215</v>
@@ -26503,7 +26506,7 @@
         <v>2231</v>
       </c>
       <c r="B1119" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1119" t="s">
         <v>2215</v>
@@ -26520,7 +26523,7 @@
         <v>2233</v>
       </c>
       <c r="B1120" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1120" t="s">
         <v>2215</v>
@@ -26537,7 +26540,7 @@
         <v>2235</v>
       </c>
       <c r="B1121" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1121" t="s">
         <v>2215</v>
@@ -26554,7 +26557,7 @@
         <v>2237</v>
       </c>
       <c r="B1122" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1122" t="s">
         <v>2238</v>
@@ -26571,7 +26574,7 @@
         <v>2240</v>
       </c>
       <c r="B1123" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1123" t="s">
         <v>2238</v>
@@ -26588,7 +26591,7 @@
         <v>2242</v>
       </c>
       <c r="B1124" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1124" t="s">
         <v>2238</v>
@@ -26605,7 +26608,7 @@
         <v>2244</v>
       </c>
       <c r="B1125" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1125" t="s">
         <v>2238</v>
@@ -26622,7 +26625,7 @@
         <v>2246</v>
       </c>
       <c r="B1126" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1126" t="s">
         <v>2238</v>
@@ -26639,7 +26642,7 @@
         <v>2248</v>
       </c>
       <c r="B1127" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1127" t="s">
         <v>2238</v>
@@ -26656,7 +26659,7 @@
         <v>2250</v>
       </c>
       <c r="B1128" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1128" t="s">
         <v>2238</v>
@@ -26673,7 +26676,7 @@
         <v>2252</v>
       </c>
       <c r="B1129" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1129" t="s">
         <v>2238</v>
@@ -26690,7 +26693,7 @@
         <v>2254</v>
       </c>
       <c r="B1130" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1130" t="s">
         <v>2238</v>
@@ -26707,7 +26710,7 @@
         <v>2256</v>
       </c>
       <c r="B1131" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1131" t="s">
         <v>2238</v>
@@ -26724,7 +26727,7 @@
         <v>2257</v>
       </c>
       <c r="B1132" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1132" t="s">
         <v>2238</v>
@@ -26741,7 +26744,7 @@
         <v>2258</v>
       </c>
       <c r="B1133" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1133" t="s">
         <v>2238</v>
@@ -26758,7 +26761,7 @@
         <v>2260</v>
       </c>
       <c r="B1134" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1134" t="s">
         <v>2261</v>
@@ -26775,7 +26778,7 @@
         <v>2263</v>
       </c>
       <c r="B1135" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1135" t="s">
         <v>2261</v>
@@ -26792,7 +26795,7 @@
         <v>2265</v>
       </c>
       <c r="B1136" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1136" t="s">
         <v>2261</v>
@@ -26809,7 +26812,7 @@
         <v>2267</v>
       </c>
       <c r="B1137" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1137" t="s">
         <v>2261</v>
@@ -26826,7 +26829,7 @@
         <v>2269</v>
       </c>
       <c r="B1138" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1138" t="s">
         <v>2261</v>
@@ -26843,7 +26846,7 @@
         <v>2271</v>
       </c>
       <c r="B1139" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1139" t="s">
         <v>2261</v>
@@ -26860,7 +26863,7 @@
         <v>2273</v>
       </c>
       <c r="B1140" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1140" t="s">
         <v>2261</v>
@@ -26877,7 +26880,7 @@
         <v>2275</v>
       </c>
       <c r="B1141" t="s">
-        <v>2143</v>
+        <v>2365</v>
       </c>
       <c r="C1141" t="s">
         <v>2261</v>

--- a/data/itis_students.xlsx
+++ b/data/itis_students.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minga\PycharmProjects\ITIS-helper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC9891-A4B7-461F-8E19-E7FF1EF79DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA3D16E-A54F-4D9B-8DB8-1E3742B49185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="2366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="2369">
   <si>
     <t>FIO</t>
   </si>
@@ -7118,6 +7118,15 @@
   </si>
   <si>
     <t>магистратура</t>
+  </si>
+  <si>
+    <t>Зокиржонов Оятилло</t>
+  </si>
+  <si>
+    <t>Мамасолиев Давронбек</t>
+  </si>
+  <si>
+    <t>Али Абдалла</t>
   </si>
 </sst>
 </file>
@@ -7482,8 +7491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1129" workbookViewId="0">
-      <selection activeCell="F1139" sqref="F1139"/>
+    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
+      <selection activeCell="D332" sqref="D332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12861,7 +12870,7 @@
         <v>644</v>
       </c>
       <c r="D316" t="s">
-        <v>643</v>
+        <v>2368</v>
       </c>
       <c r="E316" t="b">
         <v>0</v>
@@ -13065,7 +13074,7 @@
         <v>644</v>
       </c>
       <c r="D328" t="s">
-        <v>657</v>
+        <v>2366</v>
       </c>
       <c r="E328" t="b">
         <v>1</v>
@@ -13133,7 +13142,7 @@
         <v>644</v>
       </c>
       <c r="D332" t="s">
-        <v>663</v>
+        <v>2367</v>
       </c>
       <c r="E332" t="b">
         <v>1</v>
